--- a/formatted-textbox/Tests/tests.xlsx
+++ b/formatted-textbox/Tests/tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\stackoverflow\formatted-textbox\formatted-textbox\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7888B84D-8991-4B6F-BD73-9B1FFFD63322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6733681D-F90B-45D6-BFE2-B856F51CD5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{6F4D8838-CCC8-457E-98C8-60222A7D9FAE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Test</t>
   </si>
@@ -45,6 +45,27 @@
   </si>
   <si>
     <t>TextBoxFP</t>
+  </si>
+  <si>
+    <t>Initial</t>
+  </si>
+  <si>
+    <t>Focused entry</t>
+  </si>
+  <si>
+    <t>[Enter] Key</t>
+  </si>
+  <si>
+    <t>Click between 2 and 3</t>
+  </si>
+  <si>
+    <t>New value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Force lose focus by click </t>
+  </si>
+  <si>
+    <t>Set value by button click</t>
   </si>
 </sst>
 </file>
@@ -80,10 +101,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -108,21 +135,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2438400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1472147</xdr:rowOff>
+      <xdr:colOff>2450663</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>6351</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC7DF0DB-0879-55D7-DB34-1AD5983F823E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BF79E8D-7011-04B8-FF77-DF319015C344}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -138,8 +165,272 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3117850" y="184151"/>
-          <a:ext cx="2438400" cy="1472146"/>
+          <a:off x="2216150" y="3498851"/>
+          <a:ext cx="2450663" cy="1479550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>20087</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63F224AC-F326-48D0-3E02-BB405BC08FD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2330450" y="5156200"/>
+          <a:ext cx="2477537" cy="1504950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2456629</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33E8574C-970A-A73F-48A5-17A2A2A91318}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2330450" y="6813550"/>
+          <a:ext cx="2456629" cy="1492250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>498</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{915F483D-477F-23A4-91B5-5F4E6041E338}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2330450" y="8470900"/>
+          <a:ext cx="2457450" cy="1492748"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2456629</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A960D699-5963-B4F6-ACA4-137BC32B1A06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1733550" y="1841500"/>
+          <a:ext cx="2456629" cy="1492250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2456629</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1492250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99049EFF-B37D-AA49-8D81-02ED3A7B8F2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1733550" y="10147300"/>
+          <a:ext cx="2456629" cy="1492250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>23406</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB917CF1-F2AB-2710-8B93-E0829D24E12C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1733550" y="184150"/>
+          <a:ext cx="2463800" cy="1496606"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -448,23 +739,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAACA41-F1CB-46AA-9961-CDA72D3CDE71}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.1796875" customWidth="1"/>
-    <col min="2" max="2" width="4.26953125" customWidth="1"/>
+    <col min="1" max="1" width="21.1796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.6328125" customWidth="1"/>
     <col min="3" max="3" width="35.1796875" customWidth="1"/>
     <col min="4" max="4" width="4.26953125" customWidth="1"/>
     <col min="5" max="5" width="35.453125" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -474,14 +766,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="116" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:5" ht="116" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:5" ht="116" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:5" ht="116" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:5" ht="116" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:5" ht="116" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:5" ht="116" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="116" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="116" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="116" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="116" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="117.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="124" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/formatted-textbox/Tests/tests.xlsx
+++ b/formatted-textbox/Tests/tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\stackoverflow\formatted-textbox\formatted-textbox\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6733681D-F90B-45D6-BFE2-B856F51CD5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BFB65A-2CE9-4752-84C8-5F395B25BD0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{6F4D8838-CCC8-457E-98C8-60222A7D9FAE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Test</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>[Enter] Key</t>
-  </si>
-  <si>
-    <t>Click between 2 and 3</t>
   </si>
   <si>
     <t>New value</t>
@@ -223,58 +220,58 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2456629</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33E8574C-970A-A73F-48A5-17A2A2A91318}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2330450" y="6813550"/>
+          <a:ext cx="2456629" cy="1492250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2456629</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33E8574C-970A-A73F-48A5-17A2A2A91318}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2330450" y="6813550"/>
-          <a:ext cx="2456629" cy="1492250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>498</xdr:rowOff>
+      <xdr:rowOff>497</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -297,8 +294,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2330450" y="8470900"/>
-          <a:ext cx="2457450" cy="1492748"/>
+          <a:off x="1733176" y="6820647"/>
+          <a:ext cx="2457824" cy="1494615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -355,13 +352,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2456629</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1492250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -431,6 +428,226 @@
         <a:xfrm>
           <a:off x="1733550" y="184150"/>
           <a:ext cx="2463800" cy="1496606"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2464174</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>23406</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{942F3C72-819C-45D2-9977-B99BA13F52A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4489824" y="186765"/>
+          <a:ext cx="2464174" cy="1495112"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2456629</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CB3EB84-D25C-4C38-BAA3-2D914F101054}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4489824" y="1845235"/>
+          <a:ext cx="2456629" cy="1490756"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4066</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>37353</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2CBD17D-F547-68E9-599D-59F6C0C1ABF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4489824" y="3503706"/>
+          <a:ext cx="2484301" cy="1509059"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2459705</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A722703D-EC65-4875-6C0B-07DCAE8AF5C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4489824" y="5162176"/>
+          <a:ext cx="2459705" cy="1494118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7470</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9836</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B9C5C0B-A551-79F7-D1B1-8E6F684B3424}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4489824" y="6820647"/>
+          <a:ext cx="2487705" cy="1503954"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -739,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAACA41-F1CB-46AA-9961-CDA72D3CDE71}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -786,19 +1003,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="116" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="117.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="117.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="124" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="124" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/formatted-textbox/Tests/tests.xlsx
+++ b/formatted-textbox/Tests/tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\stackoverflow\formatted-textbox\formatted-textbox\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BFB65A-2CE9-4752-84C8-5F395B25BD0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B8C1F3-A250-419F-B7A5-EF0A215FFDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{6F4D8838-CCC8-457E-98C8-60222A7D9FAE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Test</t>
   </si>
@@ -59,18 +59,60 @@
     <t>New value</t>
   </si>
   <si>
-    <t xml:space="preserve">Force lose focus by click </t>
+    <t>Not Supported</t>
   </si>
   <si>
-    <t>Set value by button click</t>
+    <t>Invalid input or [Esc]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Force lose focus by click:
+The new TextBoxFP is read only and should </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> expand the resolution.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Reverts to last known good value</t>
+  </si>
+  <si>
+    <t>Set value externally</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -98,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -108,6 +150,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -264,50 +309,6 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>497</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{915F483D-477F-23A4-91B5-5F4E6041E338}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1733176" y="6820647"/>
-          <a:ext cx="2457824" cy="1494615"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -331,7 +332,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -339,50 +340,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1733550" y="1841500"/>
-          <a:ext cx="2456629" cy="1492250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2456629</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1492250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99049EFF-B37D-AA49-8D81-02ED3A7B8F2A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1733550" y="10147300"/>
           <a:ext cx="2456629" cy="1492250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -419,7 +376,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -463,7 +420,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -507,7 +464,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -551,7 +508,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -595,7 +552,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -639,7 +596,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -648,6 +605,138 @@
         <a:xfrm>
           <a:off x="4489824" y="6820647"/>
           <a:ext cx="2487705" cy="1503954"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1881</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{010AA67D-0735-9A56-440A-72A36D7D204C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1733176" y="6820647"/>
+          <a:ext cx="2459705" cy="1494118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7470</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1503954</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6885DDE6-5F9D-11B4-F5AF-C69C0E4319DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4489824" y="10249647"/>
+          <a:ext cx="2487705" cy="1503954"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2447405</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1486647</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71ED6FC6-33C3-62D9-7043-037606370CF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1733176" y="8501529"/>
+          <a:ext cx="2447405" cy="1486647"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -956,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAACA41-F1CB-46AA-9961-CDA72D3CDE71}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1004,14 +1093,26 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="117.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="120.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="124" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+    <row r="14" spans="1:5" ht="122.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
